--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6908ADD-72CB-40DB-9892-2E7585C6548E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F728D-0D65-4FAD-A0AE-3053CCF6C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -532,6 +532,54 @@
   </si>
   <si>
     <t>CONFIRM_PIN_TEXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Confirm PIN']</t>
+  </si>
+  <si>
+    <t>Step4_of_4</t>
+  </si>
+  <si>
+    <t>//android.widget.ProgressBar[@text='1.0']</t>
+  </si>
+  <si>
+    <t>Step3_of_4</t>
+  </si>
+  <si>
+    <t>//android.widget.ProgressBar[@text='0.75']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Enable biometrics']</t>
+  </si>
+  <si>
+    <t>ENABLE_BIOMETRICS</t>
+  </si>
+  <si>
+    <t>MAY_BE_LATER</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Maybe later']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Incorrect PIN']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Sorry, your PIN does not match. Please try again.']</t>
+  </si>
+  <si>
+    <t>INCORRECT_PIN</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_STEP4</t>
+  </si>
+  <si>
+    <t>EDIT_DETAILS_STEP4</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Secure Sign in']</t>
+  </si>
+  <si>
+    <t>SECURE_SIGN_IN</t>
   </si>
 </sst>
 </file>
@@ -906,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,10 +1140,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -1103,10 +1151,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -1114,10 +1162,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -1125,10 +1173,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -1136,10 +1184,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -1147,10 +1195,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -1158,10 +1206,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1169,10 +1217,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -1180,10 +1228,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1191,10 +1239,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1202,10 +1250,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1213,10 +1261,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -1224,10 +1272,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1235,10 +1283,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1246,10 +1294,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1257,10 +1305,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1268,10 +1316,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1279,10 +1327,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -1290,21 +1338,21 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1312,21 +1360,21 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1334,10 +1382,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1345,54 +1393,54 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -1400,10 +1448,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1411,10 +1459,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1422,10 +1470,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1433,10 +1481,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1444,10 +1492,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1455,10 +1503,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -1466,10 +1514,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -1477,10 +1525,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -1488,10 +1536,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1499,10 +1547,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -1510,10 +1558,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -1521,10 +1569,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -1532,10 +1580,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -1543,10 +1591,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -1554,32 +1602,32 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -1587,10 +1635,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -1598,10 +1646,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -1609,10 +1657,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1620,10 +1668,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -1631,10 +1679,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -1642,10 +1690,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -1653,10 +1701,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -1664,10 +1712,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -1675,10 +1723,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -1686,10 +1734,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1697,10 +1745,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -1708,10 +1756,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -1719,10 +1767,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -1730,10 +1778,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -1741,10 +1789,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -1752,10 +1800,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -1763,10 +1811,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -1774,10 +1822,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -1785,10 +1833,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -1796,10 +1844,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -1807,10 +1855,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -1818,10 +1866,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -1829,10 +1877,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -1840,10 +1888,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -1851,10 +1899,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -1862,10 +1910,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -1873,10 +1921,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -1884,10 +1932,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
@@ -1895,10 +1943,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -1906,7 +1954,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
         <v>53</v>
@@ -1917,10 +1965,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -1928,22 +1976,161 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
+        <v>169</v>
+      </c>
       <c r="E93" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
       <c r="E94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
+        <v>175</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F728D-0D65-4FAD-A0AE-3053CCF6C39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816996D-F162-42E2-9C81-E2E999F73D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -159,9 +159,6 @@
     <t>(//android.view.View[@package='com.charlesstanley.android.qa'])[16]</t>
   </si>
   <si>
-    <t>MORE_BUTTON</t>
-  </si>
-  <si>
     <t>//android.widget.TextView[@text='More']</t>
   </si>
   <si>
@@ -580,6 +577,15 @@
   </si>
   <si>
     <t>SECURE_SIGN_IN</t>
+  </si>
+  <si>
+    <t>More_Option</t>
+  </si>
+  <si>
+    <t>OneCS_Tittle</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='OneCS']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +963,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1003,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1088,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1176,7 +1182,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -1195,10 +1201,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -1206,10 +1212,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1217,10 +1223,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -1228,10 +1234,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1239,10 +1245,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1250,10 +1256,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1261,10 +1267,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -1272,10 +1278,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1283,10 +1289,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1294,10 +1300,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1305,10 +1311,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1316,10 +1322,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1327,10 +1333,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
         <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -1338,10 +1344,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1349,10 +1355,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
         <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>71</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1360,10 +1366,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -1371,10 +1377,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>75</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1382,7 +1388,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1393,10 +1399,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -1415,10 +1421,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1426,10 +1432,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1437,10 +1443,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -1448,10 +1454,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1459,10 +1465,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1470,10 +1476,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1481,10 +1487,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1492,10 +1498,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1503,10 +1509,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -1514,10 +1520,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -1525,7 +1531,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -1536,10 +1542,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1558,10 +1564,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -1569,10 +1575,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -1580,10 +1586,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -1602,10 +1608,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -1624,10 +1630,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -1635,10 +1641,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -1646,10 +1652,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -1657,10 +1663,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1668,10 +1674,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
         <v>120</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -1679,7 +1685,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>33</v>
@@ -1690,10 +1696,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -1701,7 +1707,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -1712,10 +1718,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
@@ -1734,10 +1740,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
         <v>131</v>
-      </c>
-      <c r="B70" t="s">
-        <v>132</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1745,10 +1751,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -1756,10 +1762,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
         <v>134</v>
-      </c>
-      <c r="B72" t="s">
-        <v>135</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -1767,10 +1773,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -1778,10 +1784,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
         <v>138</v>
-      </c>
-      <c r="B74" t="s">
-        <v>139</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -1789,10 +1795,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -1800,10 +1806,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -1811,10 +1817,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -1822,10 +1828,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
         <v>146</v>
-      </c>
-      <c r="B78" t="s">
-        <v>147</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -1833,10 +1839,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -1844,10 +1850,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -1855,10 +1861,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -1866,10 +1872,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -1877,10 +1883,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -1888,10 +1894,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -1899,10 +1905,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -1921,10 +1927,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -1943,10 +1949,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -1954,10 +1960,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
@@ -1965,10 +1971,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -1979,7 +1985,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -1987,10 +1993,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" t="s">
         <v>168</v>
-      </c>
-      <c r="B93" t="s">
-        <v>169</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -1998,10 +2004,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
         <v>170</v>
-      </c>
-      <c r="B94" t="s">
-        <v>171</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -2009,10 +2015,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -2020,10 +2026,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
         <v>174</v>
-      </c>
-      <c r="B96" t="s">
-        <v>175</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -2031,10 +2037,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -2042,10 +2048,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -2053,10 +2059,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -2064,10 +2070,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2075,16 +2081,22 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" t="s">
         <v>174</v>
       </c>
-      <c r="B101" t="s">
-        <v>175</v>
-      </c>
       <c r="E101" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
       <c r="E102" t="s">
         <v>5</v>
       </c>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5816996D-F162-42E2-9C81-E2E999F73D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F1CA7-5BA5-451A-BDDC-98F20B40C483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="185">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2102,6 +2102,12 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
       <c r="E103" t="s">
         <v>5</v>
       </c>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F1CA7-5BA5-451A-BDDC-98F20B40C483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9690337E-E69E-4BE8-BFF6-4DE9B5AD2288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="238">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -165,9 +165,6 @@
     <t>YOUR_ACCOUNTS</t>
   </si>
   <si>
-    <t>(//android.widget.TextView[@text='Mr Lucas Jarvis Forename Surname'])[1]</t>
-  </si>
-  <si>
     <t>HOLDINGS_TAB</t>
   </si>
   <si>
@@ -586,6 +583,168 @@
   </si>
   <si>
     <t>//android.widget.TextView[@text='OneCS']</t>
+  </si>
+  <si>
+    <t>CONFIRM_YOUR_PIN</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='USER SETTINGS']</t>
+  </si>
+  <si>
+    <t>MORE_USER_SETTINGS</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='HELP &amp; SUPPORT']</t>
+  </si>
+  <si>
+    <t>MORE_HELP_SUPPORT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='MARKETS INFORMATION']</t>
+  </si>
+  <si>
+    <t>MORE_MARKET_INFO</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='ABOUT CHARLES STANLEY']</t>
+  </si>
+  <si>
+    <t>MORE_ABOUT_CS</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Account settings']</t>
+  </si>
+  <si>
+    <t>MORE_ACCOUNT_SETTINGS</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='FAQs']</t>
+  </si>
+  <si>
+    <t>MORE_HELP_FAQ</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Help centre']</t>
+  </si>
+  <si>
+    <t>MORE_HELP_CENTRE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Glossary']</t>
+  </si>
+  <si>
+    <t>MORE_HELP_GLOSSARY</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="What's new"]</t>
+  </si>
+  <si>
+    <t>MORE_HELP_NEW</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Market data"]</t>
+  </si>
+  <si>
+    <t>MORE_MARKET_DATA</t>
+  </si>
+  <si>
+    <t>MORE_MARKET_CURRENCY</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Currency rates"]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Contact details"]</t>
+  </si>
+  <si>
+    <t>MORE_ABOUT_CONTACT_DET</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Important information"]</t>
+  </si>
+  <si>
+    <t>MORE_ABOUT_IMPINFO</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Licensing information"]</t>
+  </si>
+  <si>
+    <t>MORE_ABOUT_LICINFO</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Rate us"]</t>
+  </si>
+  <si>
+    <t>SIGN_OUT</t>
+  </si>
+  <si>
+    <t>MORE_USER_DOCUMENTS</t>
+  </si>
+  <si>
+    <t>MORE_ABOUT_RATEUS</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Sign out"]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Your accounts']</t>
+  </si>
+  <si>
+    <t>(//android.widget.TextView[@text='Mr Lucas Jarvis Forename Surname'])[2]</t>
+  </si>
+  <si>
+    <t>MR_LUCAS_ISA</t>
+  </si>
+  <si>
+    <t>EDIT_PENCIL</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Account management']</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Activity"]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Account breakdown"]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT_ACTIVITY</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>DARK_AREA</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Close sheet"]</t>
+  </si>
+  <si>
+    <t>//android.widget.ScrollView</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MANAGEMENT_SWIPEDOWN</t>
+  </si>
+  <si>
+    <t>WAIT_EDIT_PENCIL</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,"Account:")]</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Order list"]</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ACTITVITY_ORDERLIST</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DASHBOARD</t>
   </si>
 </sst>
 </file>
@@ -960,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,7 +1162,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1014,7 +1173,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1094,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1182,7 +1341,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -1201,7 +1360,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1215,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -1223,10 +1382,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -1234,10 +1393,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1245,10 +1404,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1256,10 +1415,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1267,10 +1426,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -1278,10 +1437,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -1289,10 +1448,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -1300,10 +1459,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -1311,10 +1470,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
         <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -1322,10 +1481,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1333,10 +1492,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -1344,10 +1503,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1355,10 +1514,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
         <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1366,10 +1525,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -1377,10 +1536,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -1388,7 +1547,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
@@ -1399,10 +1558,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1410,10 +1569,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -1421,10 +1580,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1432,10 +1591,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1443,10 +1602,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -1454,10 +1613,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -1465,10 +1624,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -1476,10 +1635,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -1487,10 +1646,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -1498,10 +1657,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -1509,10 +1668,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>95</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -1520,10 +1679,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
         <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -1531,7 +1690,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -1542,10 +1701,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -1564,10 +1723,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -1575,10 +1734,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -1586,10 +1745,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -1597,7 +1756,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
@@ -1608,10 +1767,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1619,7 +1778,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -1630,10 +1789,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -1641,10 +1800,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -1652,10 +1811,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -1663,10 +1822,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -1674,10 +1833,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
         <v>119</v>
-      </c>
-      <c r="B64" t="s">
-        <v>120</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -1685,7 +1844,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
         <v>33</v>
@@ -1696,10 +1855,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -1707,7 +1866,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" t="s">
         <v>25</v>
@@ -1718,10 +1877,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -1729,7 +1888,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
@@ -1740,10 +1899,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
         <v>130</v>
-      </c>
-      <c r="B70" t="s">
-        <v>131</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -1751,10 +1910,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -1762,10 +1921,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
         <v>133</v>
-      </c>
-      <c r="B72" t="s">
-        <v>134</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -1773,10 +1932,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -1784,10 +1943,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
         <v>137</v>
-      </c>
-      <c r="B74" t="s">
-        <v>138</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -1795,10 +1954,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -1806,10 +1965,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -1817,10 +1976,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -1828,10 +1987,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" t="s">
         <v>145</v>
-      </c>
-      <c r="B78" t="s">
-        <v>146</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -1839,10 +1998,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -1850,10 +2009,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -1861,10 +2020,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -1872,10 +2031,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -1883,10 +2042,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -1894,10 +2053,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -1905,10 +2064,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -1927,10 +2086,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -1938,7 +2097,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -1949,10 +2108,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -1960,10 +2119,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
@@ -1971,10 +2130,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -1985,7 +2144,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -1993,10 +2152,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
         <v>167</v>
-      </c>
-      <c r="B93" t="s">
-        <v>168</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -2004,10 +2163,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
         <v>169</v>
-      </c>
-      <c r="B94" t="s">
-        <v>170</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -2015,10 +2174,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -2026,10 +2185,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
         <v>173</v>
-      </c>
-      <c r="B96" t="s">
-        <v>174</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -2037,10 +2196,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -2048,10 +2207,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -2059,10 +2218,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -2070,10 +2229,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2081,10 +2240,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" t="s">
         <v>173</v>
-      </c>
-      <c r="B101" t="s">
-        <v>174</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -2092,10 +2251,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" t="s">
         <v>183</v>
-      </c>
-      <c r="B102" t="s">
-        <v>184</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -2103,52 +2262,336 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>184</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
       <c r="E104" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>186</v>
+      </c>
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
       <c r="E105" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
+        <v>187</v>
+      </c>
       <c r="E106" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
       <c r="E107" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" t="s">
+        <v>191</v>
+      </c>
       <c r="E108" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>194</v>
+      </c>
+      <c r="B109" t="s">
+        <v>193</v>
+      </c>
       <c r="E109" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
       <c r="E110" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
       <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>198</v>
+      </c>
+      <c r="B112" t="s">
+        <v>197</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" t="s">
+        <v>201</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
+        <v>206</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" t="s">
+        <v>207</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" t="s">
+        <v>209</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>212</v>
+      </c>
+      <c r="B119" t="s">
+        <v>211</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>216</v>
+      </c>
+      <c r="B120" t="s">
+        <v>213</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>214</v>
+      </c>
+      <c r="B121" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" t="s">
+        <v>219</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>223</v>
+      </c>
+      <c r="B124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" t="s">
+        <v>224</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>228</v>
+      </c>
+      <c r="B127" t="s">
+        <v>229</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>231</v>
+      </c>
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="E128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>233</v>
+      </c>
+      <c r="E129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>234</v>
+      </c>
+      <c r="B130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>236</v>
+      </c>
+      <c r="B131" t="s">
+        <v>235</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>237</v>
+      </c>
+      <c r="B132" t="s">
+        <v>233</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9690337E-E69E-4BE8-BFF6-4DE9B5AD2288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991418E-70DF-4215-84B9-333641446B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="268">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -690,9 +690,6 @@
     <t>//android.widget.TextView[@text='Your accounts']</t>
   </si>
   <si>
-    <t>(//android.widget.TextView[@text='Mr Lucas Jarvis Forename Surname'])[2]</t>
-  </si>
-  <si>
     <t>MR_LUCAS_ISA</t>
   </si>
   <si>
@@ -745,6 +742,99 @@
   </si>
   <si>
     <t>ACCOUNT_DASHBOARD</t>
+  </si>
+  <si>
+    <t>ACTIVITY_BLANK_PAGE</t>
+  </si>
+  <si>
+    <t>(//android.view.View)[14]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Date"]</t>
+  </si>
+  <si>
+    <t>ORDER_LIST_DATE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Ref"]</t>
+  </si>
+  <si>
+    <t>ORDER_LIST_REF</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Type"]</t>
+  </si>
+  <si>
+    <t>ORDER_LIST_TYPE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text="Current status"]</t>
+  </si>
+  <si>
+    <t>ORDER_LIST_CURRSTAT</t>
+  </si>
+  <si>
+    <t>MINIMIZED_HOLDINGS</t>
+  </si>
+  <si>
+    <t>(//android.widget.Button)[6]</t>
+  </si>
+  <si>
+    <t>THREE_LINES</t>
+  </si>
+  <si>
+    <t>(//android.view.View)[23]</t>
+  </si>
+  <si>
+    <t>HOLDINGS_DETAIL_CONTAINER</t>
+  </si>
+  <si>
+    <t>HOLDINGS_VALUE</t>
+  </si>
+  <si>
+    <t>HOLDINGS_PRICE</t>
+  </si>
+  <si>
+    <t>HOLDINGS_VALUE_CHANGE</t>
+  </si>
+  <si>
+    <t>HOLDINGS_COST</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Value']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Price']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Value Change']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Cost']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,"Waiting.")]</t>
+  </si>
+  <si>
+    <t>CODE_WAIT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='account-holding-0-name']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='account-holding-1-name']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='account-holding-2-name']</t>
+  </si>
+  <si>
+    <t>HOLDINGS_ACCOUNTS1</t>
+  </si>
+  <si>
+    <t>HOLDINGS_ACCOUNTS2</t>
+  </si>
+  <si>
+    <t>HOLDINGS_ACCOUNTS3</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2471,10 +2561,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -2482,7 +2572,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
@@ -2493,10 +2583,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -2504,10 +2594,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -2515,10 +2605,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
@@ -2526,10 +2616,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="B127" t="s">
         <v>228</v>
-      </c>
-      <c r="B127" t="s">
-        <v>229</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -2537,10 +2627,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
@@ -2548,10 +2638,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>231</v>
+      </c>
+      <c r="B129" t="s">
         <v>232</v>
-      </c>
-      <c r="B129" t="s">
-        <v>233</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -2559,10 +2649,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -2570,10 +2660,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -2581,17 +2671,243 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" t="s">
+        <v>232</v>
+      </c>
+      <c r="E132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>237</v>
       </c>
-      <c r="B132" t="s">
-        <v>233</v>
-      </c>
-      <c r="E132" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>238</v>
+      </c>
       <c r="E133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" t="s">
+        <v>239</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" t="s">
+        <v>241</v>
+      </c>
+      <c r="E135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" t="s">
+        <v>243</v>
+      </c>
+      <c r="E136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>246</v>
+      </c>
+      <c r="B137" t="s">
+        <v>245</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>249</v>
+      </c>
+      <c r="B139" t="s">
+        <v>248</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140" t="s">
+        <v>250</v>
+      </c>
+      <c r="E140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>252</v>
+      </c>
+      <c r="B141" t="s">
+        <v>256</v>
+      </c>
+      <c r="E141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+      <c r="E142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" t="s">
+        <v>259</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>261</v>
+      </c>
+      <c r="B145" t="s">
+        <v>260</v>
+      </c>
+      <c r="E145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>265</v>
+      </c>
+      <c r="B146" t="s">
+        <v>262</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>266</v>
+      </c>
+      <c r="B147" t="s">
+        <v>263</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" t="s">
+        <v>264</v>
+      </c>
+      <c r="E148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E159" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E991418E-70DF-4215-84B9-333641446B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D9A18-323E-4352-B456-BF1C8DCB185B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="286">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -835,6 +835,60 @@
   </si>
   <si>
     <t>HOLDINGS_ACCOUNTS3</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='PROCESSING']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='DEALT']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='CANCELLED']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='COMPLETE']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='REJECTED']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='EXPIRED']</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ORDER_PROCESSING</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ORDER_DEALT</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ORDER_CANCELLED</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ORDER_COMPLETE</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ORDER_REJECTED</t>
+  </si>
+  <si>
+    <t>ACTIVITY_ORDER_EXPIRED</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,"Portfolio:")]</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_DASHBOARD</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@text,"Values as of")]</t>
+  </si>
+  <si>
+    <t>VALUE_AS_OF_ACCOUNT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='account-summary-total-value']</t>
+  </si>
+  <si>
+    <t>ACCOUNT_TOTAL_VALUE</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2857,46 +2911,100 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" t="s">
+        <v>268</v>
+      </c>
       <c r="E149" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" t="s">
+        <v>269</v>
+      </c>
       <c r="E150" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" t="s">
+        <v>270</v>
+      </c>
       <c r="E151" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" t="s">
+        <v>271</v>
+      </c>
       <c r="E152" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" t="s">
+        <v>272</v>
+      </c>
       <c r="E153" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" t="s">
+        <v>273</v>
+      </c>
       <c r="E154" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155" t="s">
+        <v>280</v>
+      </c>
       <c r="E155" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>283</v>
+      </c>
+      <c r="B156" t="s">
+        <v>282</v>
+      </c>
       <c r="E156" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>285</v>
+      </c>
+      <c r="B157" t="s">
+        <v>284</v>
+      </c>
       <c r="E157" t="s">
         <v>5</v>
       </c>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D9A18-323E-4352-B456-BF1C8DCB185B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F8180-3BDF-4313-B392-3E4827BF6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="311">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -889,6 +889,81 @@
   </si>
   <si>
     <t>ACCOUNT_TOTAL_VALUE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Portfolio: Showing all']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_SELECTOR_PILLBOX</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Your current portfolio value is']</t>
+  </si>
+  <si>
+    <t>YOUR_CURRENT_PORTFOLIO_VALUE_IS_TXT</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_PERFORMANCE_ARROW</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id='portfolio-performance-increase-arrow']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-summary-total-value']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_VALUE_TXT</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_EYE_ICON_BTN</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='Hide monetary values']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_SUMMARY_VALUE_CHANGE_TXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-summary-value-change']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_SUMMARY_REFRESH_TIME_TXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-summary-refreshed-at-text']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Portfolio']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_TAB</t>
+  </si>
+  <si>
+    <t>CONTACT_TAB</t>
+  </si>
+  <si>
+    <t>INVESTMENT_TAB</t>
+  </si>
+  <si>
+    <t>INSIGHTS_TAB</t>
+  </si>
+  <si>
+    <t>MORE_TAB</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Contact']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Investments']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Insights']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@resource-id,"portfolio-account") and contains(@resource-id,"name") ]</t>
+  </si>
+  <si>
+    <t>TOTAL_ACCOUNTS_IN_ACCOUNTS_SCREEN</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3010,12 +3085,170 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>287</v>
+      </c>
+      <c r="B158" t="s">
+        <v>286</v>
+      </c>
       <c r="E158" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" t="s">
+        <v>288</v>
+      </c>
       <c r="E159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>290</v>
+      </c>
+      <c r="B160" t="s">
+        <v>291</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>293</v>
+      </c>
+      <c r="B161" t="s">
+        <v>292</v>
+      </c>
+      <c r="E161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>294</v>
+      </c>
+      <c r="B162" t="s">
+        <v>295</v>
+      </c>
+      <c r="E162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>296</v>
+      </c>
+      <c r="B163" t="s">
+        <v>297</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>298</v>
+      </c>
+      <c r="B164" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>301</v>
+      </c>
+      <c r="B165" t="s">
+        <v>300</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>302</v>
+      </c>
+      <c r="B166" t="s">
+        <v>306</v>
+      </c>
+      <c r="E166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>303</v>
+      </c>
+      <c r="B167" t="s">
+        <v>307</v>
+      </c>
+      <c r="E167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" t="s">
+        <v>308</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>305</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" t="s">
+        <v>309</v>
+      </c>
+      <c r="E170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E175" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F8180-3BDF-4313-B392-3E4827BF6816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA6E146-143B-4D5D-A26E-30E8AB9B1E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="362">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -964,6 +964,159 @@
   </si>
   <si>
     <t>TOTAL_ACCOUNTS_IN_ACCOUNTS_SCREEN</t>
+  </si>
+  <si>
+    <t>ACCOUNT_DASHBOARD_TOTAL_VALUE</t>
+  </si>
+  <si>
+    <t>TOTAL_HOLDINGS_IN_ACCOUNTS_SCREEN</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@resource-id,"account-holding") and contains(@resource-id,"name") ]</t>
+  </si>
+  <si>
+    <t>//android.widget.ProgressBar</t>
+  </si>
+  <si>
+    <t>ACTIVITY_SCREEN_LOADINGSPINNER</t>
+  </si>
+  <si>
+    <t>CASH_MOVEMENT_ICON</t>
+  </si>
+  <si>
+    <t>//android.view.View[contains(@resource-id,"account-activity-")]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Cash movement']</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CASH_MOVEMENT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Money In']</t>
+  </si>
+  <si>
+    <t>ACTIVITY_MONEY_IN</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@resource-id,"account-activity-")]</t>
+  </si>
+  <si>
+    <t>ACTIVITY_CASH_MOVEMENT_POUNDS</t>
+  </si>
+  <si>
+    <t>REFRESH_ORDERLIST_FROM</t>
+  </si>
+  <si>
+    <t>REFRESH_ORDERLIST_TO</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Refresh content']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Current status']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[contains(@resource-id,"order-0")]</t>
+  </si>
+  <si>
+    <t>RANDOM_ORDER_ORDERLIST</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Status']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_STATUS</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Order reference']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_REFERENCE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Trade type']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_TRADE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Date']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_DATE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Settlement date']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_SETTLEMENT</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_PRICE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Quantity']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_QUANTITY</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Consideration']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_CONSIDERATION</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Other']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_OTHER</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Dealing fee']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_DEALING</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Estimated value']</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL_ESTIMATED_VALUE</t>
+  </si>
+  <si>
+    <t>CANCEL_0RDER</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Cancel order']</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id="account-management-button"]</t>
+  </si>
+  <si>
+    <t>REFRESH_CONTENT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='account-summary-percentage-change']</t>
+  </si>
+  <si>
+    <t>ACC_DASH_PERCENTAGE_VALUE</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id='account-performance-increase-arrow']</t>
+  </si>
+  <si>
+    <t>ACC_ZIGZAG_INCARROW</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='account-summary-value-change']</t>
+  </si>
+  <si>
+    <t>ACC_DASH_CHANGE_VALUE</t>
+  </si>
+  <si>
+    <t>ACC_DASH_CHANGE_PERCENTAGE</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,7 +2857,7 @@
         <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>353</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -3228,27 +3381,329 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>311</v>
+      </c>
+      <c r="B171" t="s">
+        <v>284</v>
+      </c>
       <c r="E171" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" t="s">
+        <v>313</v>
+      </c>
       <c r="E172" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>315</v>
+      </c>
+      <c r="B173" t="s">
+        <v>314</v>
+      </c>
       <c r="E173" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>316</v>
+      </c>
+      <c r="B174" t="s">
+        <v>317</v>
+      </c>
       <c r="E174" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>319</v>
+      </c>
+      <c r="B175" t="s">
+        <v>318</v>
+      </c>
       <c r="E175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>321</v>
+      </c>
+      <c r="B176" t="s">
+        <v>320</v>
+      </c>
+      <c r="E176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>323</v>
+      </c>
+      <c r="B177" t="s">
+        <v>322</v>
+      </c>
+      <c r="E177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>324</v>
+      </c>
+      <c r="B178" t="s">
+        <v>326</v>
+      </c>
+      <c r="E178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>325</v>
+      </c>
+      <c r="B179" t="s">
+        <v>327</v>
+      </c>
+      <c r="E179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>329</v>
+      </c>
+      <c r="B180" t="s">
+        <v>328</v>
+      </c>
+      <c r="E180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>331</v>
+      </c>
+      <c r="B181" t="s">
+        <v>330</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>333</v>
+      </c>
+      <c r="B182" t="s">
+        <v>332</v>
+      </c>
+      <c r="E182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" t="s">
+        <v>334</v>
+      </c>
+      <c r="E183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>337</v>
+      </c>
+      <c r="B184" t="s">
+        <v>336</v>
+      </c>
+      <c r="E184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>339</v>
+      </c>
+      <c r="B185" t="s">
+        <v>338</v>
+      </c>
+      <c r="E185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>340</v>
+      </c>
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>342</v>
+      </c>
+      <c r="B187" t="s">
+        <v>341</v>
+      </c>
+      <c r="E187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>344</v>
+      </c>
+      <c r="B188" t="s">
+        <v>343</v>
+      </c>
+      <c r="E188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>346</v>
+      </c>
+      <c r="B189" t="s">
+        <v>345</v>
+      </c>
+      <c r="E189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>348</v>
+      </c>
+      <c r="B190" t="s">
+        <v>347</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>350</v>
+      </c>
+      <c r="B191" t="s">
+        <v>349</v>
+      </c>
+      <c r="E191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>351</v>
+      </c>
+      <c r="B192" t="s">
+        <v>352</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>354</v>
+      </c>
+      <c r="B193" t="s">
+        <v>326</v>
+      </c>
+      <c r="E193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>356</v>
+      </c>
+      <c r="B194" t="s">
+        <v>355</v>
+      </c>
+      <c r="E194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>358</v>
+      </c>
+      <c r="B195" t="s">
+        <v>357</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>360</v>
+      </c>
+      <c r="B196" t="s">
+        <v>359</v>
+      </c>
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>361</v>
+      </c>
+      <c r="B197" t="s">
+        <v>355</v>
+      </c>
+      <c r="E197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E203" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA6E146-143B-4D5D-A26E-30E8AB9B1E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E37A9-A7E5-4D6E-9B32-77F080BDF467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="366">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1117,6 +1117,18 @@
   </si>
   <si>
     <t>ACC_DASH_CHANGE_PERCENTAGE</t>
+  </si>
+  <si>
+    <t>ZIG_ZAG_INCREASE</t>
+  </si>
+  <si>
+    <t>ZIG_ZAG_DECREASE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-summary-percentage-change']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_DASH_PERCENTAGE_CHANGE</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
   <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3678,16 +3690,34 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>362</v>
+      </c>
+      <c r="B198" t="s">
+        <v>291</v>
+      </c>
       <c r="E198" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>363</v>
+      </c>
+      <c r="B199" t="s">
+        <v>291</v>
+      </c>
       <c r="E199" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>365</v>
+      </c>
+      <c r="B200" t="s">
+        <v>364</v>
+      </c>
       <c r="E200" t="s">
         <v>5</v>
       </c>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E37A9-A7E5-4D6E-9B32-77F080BDF467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF03A4D-A1CC-4ED4-9A1B-945A38AD7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="407">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1129,6 +1129,129 @@
   </si>
   <si>
     <t>PORTFOLIO_DASH_PERCENTAGE_CHANGE</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_BREAKDOWN_I_BTN</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='Portfolio breakdown']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Portfolio breakdown']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_BREAKDOWN_SCREEN_TITLE</t>
+  </si>
+  <si>
+    <t>INVESTMENT_BREAKDOWN_LABEL_TXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@content-desc='Investment breakdown']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_LABEL_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>CASH_LABEL_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>COST_LABEL_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Cash']</t>
+  </si>
+  <si>
+    <t>COST_INFO_BTN</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_VALUE_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_CASH_VALUE_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>COST_VALUE_IN_PORTFOLIO_BREAKDOWN</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-breakdown-portfolio-value']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-breakdown-cash']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-breakdown-cost']</t>
+  </si>
+  <si>
+    <t>COST_INFO_POP_UP_TITLE</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Cost information']</t>
+  </si>
+  <si>
+    <t>IC_CLOSE_BTN</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Got it']</t>
+  </si>
+  <si>
+    <t>GOT_IT_BTN</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc='Close sheet']</t>
+  </si>
+  <si>
+    <t>CI_FULLSCREEN</t>
+  </si>
+  <si>
+    <t>YOUR_ACCOUNTS_TAB</t>
+  </si>
+  <si>
+    <t>YOUR_ACCOUNTS_TAB_MINIMIZE_BTN</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_NAME_YOUR_ACCOUNTS_1</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_TOTAL_VALUE_1</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_VALUE_CHANGE_1</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-account-0-name']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-account-0-total-value']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-account-0-value-change']</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_CODE_1</t>
+  </si>
+  <si>
+    <t>PORTFOLIO_ACCOUNT_PERCENTAGE_CHANGE_1</t>
+  </si>
+  <si>
+    <t>MANAGED_BY_CS_LABEL_IN_YAOUR_ACCOUNTS_1</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-account-0-code']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-account-0-percentage-change']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-account-0-managed-by']</t>
+  </si>
+  <si>
+    <t>YOUR_ACCOUNTS_TIME_STAMP_LABEL</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='portfolio-accounts-refreshed-at']</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id='portfolio-toggle-values-button']</t>
   </si>
 </sst>
 </file>
@@ -1503,15 +1626,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
     <col min="2" max="2" width="51.44140625" customWidth="1"/>
     <col min="5" max="5" width="34.109375" customWidth="1"/>
   </cols>
@@ -3723,21 +3846,319 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>366</v>
+      </c>
+      <c r="B201" t="s">
+        <v>367</v>
+      </c>
       <c r="E201" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>369</v>
+      </c>
+      <c r="B202" t="s">
+        <v>368</v>
+      </c>
       <c r="E202" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>370</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="E203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>372</v>
+      </c>
+      <c r="B204" t="s">
+        <v>300</v>
+      </c>
+      <c r="E204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>373</v>
+      </c>
+      <c r="B205" t="s">
+        <v>375</v>
+      </c>
+      <c r="E205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>374</v>
+      </c>
+      <c r="B206" t="s">
+        <v>259</v>
+      </c>
+      <c r="E206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>376</v>
+      </c>
+      <c r="B207" t="s">
+        <v>259</v>
+      </c>
+      <c r="E207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>377</v>
+      </c>
+      <c r="B208" t="s">
+        <v>380</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>378</v>
+      </c>
+      <c r="B209" t="s">
+        <v>381</v>
+      </c>
+      <c r="E209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>379</v>
+      </c>
+      <c r="B210" t="s">
+        <v>382</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>383</v>
+      </c>
+      <c r="B211" t="s">
+        <v>384</v>
+      </c>
+      <c r="E211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>385</v>
+      </c>
+      <c r="B212" t="s">
+        <v>61</v>
+      </c>
+      <c r="E212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>387</v>
+      </c>
+      <c r="B213" t="s">
+        <v>386</v>
+      </c>
+      <c r="E213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>389</v>
+      </c>
+      <c r="B214" t="s">
+        <v>388</v>
+      </c>
+      <c r="E214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>390</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="E215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>391</v>
+      </c>
+      <c r="B216" t="s">
+        <v>61</v>
+      </c>
+      <c r="E216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>310</v>
+      </c>
+      <c r="B217" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>392</v>
+      </c>
+      <c r="B218" t="s">
+        <v>395</v>
+      </c>
+      <c r="E218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>393</v>
+      </c>
+      <c r="B219" t="s">
+        <v>396</v>
+      </c>
+      <c r="E219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>394</v>
+      </c>
+      <c r="B220" t="s">
+        <v>397</v>
+      </c>
+      <c r="E220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>398</v>
+      </c>
+      <c r="B221" t="s">
+        <v>401</v>
+      </c>
+      <c r="E221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>399</v>
+      </c>
+      <c r="B222" t="s">
+        <v>402</v>
+      </c>
+      <c r="E222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>400</v>
+      </c>
+      <c r="B223" t="s">
+        <v>403</v>
+      </c>
+      <c r="E223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>404</v>
+      </c>
+      <c r="B224" t="s">
+        <v>405</v>
+      </c>
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>391</v>
+      </c>
+      <c r="B225" t="s">
+        <v>61</v>
+      </c>
+      <c r="E225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>310</v>
+      </c>
+      <c r="B226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>294</v>
+      </c>
+      <c r="B227" t="s">
+        <v>406</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E230" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF03A4D-A1CC-4ED4-9A1B-945A38AD7A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE911B4-3586-4E97-B78D-6CDB656F7211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="432">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -501,9 +501,6 @@
     <t>LOGIN_BUTTON</t>
   </si>
   <si>
-    <t>(//android.view.View[@text='Memorable Word'])[2]</t>
-  </si>
-  <si>
     <t>MEMORABLE_WORD</t>
   </si>
   <si>
@@ -1252,6 +1249,84 @@
   </si>
   <si>
     <t>//android.view.View[@resource-id='portfolio-toggle-values-button']</t>
+  </si>
+  <si>
+    <t>WEBSITE_TEXT</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="Request a call back"]</t>
+  </si>
+  <si>
+    <t>//android.widget.Button[@text='Accept All']</t>
+  </si>
+  <si>
+    <t>ACCEPT_ALL</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>WEB_VIEW</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="×"]</t>
+  </si>
+  <si>
+    <t>CLOSE_WEBPAGE</t>
+  </si>
+  <si>
+    <t>//android.view.View[@text='Memorable Word']</t>
+  </si>
+  <si>
+    <t>Documents_Option</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@resource-id='document-0-investment-name']</t>
+  </si>
+  <si>
+    <t>Account_Name_More</t>
+  </si>
+  <si>
+    <t>Reports_Tab</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_REPORT_TAB</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='OK']</t>
+  </si>
+  <si>
+    <t>OKAY_BUTTON</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Connection error']</t>
+  </si>
+  <si>
+    <t>CONNECTION_ERROR</t>
+  </si>
+  <si>
+    <t>Report_Tab</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id='report-documents-tab']</t>
+  </si>
+  <si>
+    <t>SHARE_BUTTON</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="share"]</t>
+  </si>
+  <si>
+    <t>Document_web_Url</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[contains(@text,"portalgateway")]</t>
+  </si>
+  <si>
+    <t>No_holdings</t>
+  </si>
+  <si>
+    <t>Downward_Chevron_Button</t>
   </si>
 </sst>
 </file>
@@ -1626,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1942,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1881,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -2571,10 +2646,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -2593,10 +2668,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -2604,7 +2679,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
@@ -2615,7 +2690,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
         <v>51</v>
@@ -2626,7 +2701,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
         <v>51</v>
@@ -2637,10 +2712,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -2651,7 +2726,7 @@
         <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -2659,10 +2734,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
         <v>166</v>
-      </c>
-      <c r="B93" t="s">
-        <v>167</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -2670,10 +2745,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
         <v>168</v>
-      </c>
-      <c r="B94" t="s">
-        <v>169</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -2681,10 +2756,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -2692,10 +2767,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" t="s">
         <v>172</v>
-      </c>
-      <c r="B96" t="s">
-        <v>173</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -2703,10 +2778,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -2714,10 +2789,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -2725,7 +2800,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
         <v>145</v>
@@ -2736,10 +2811,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -2747,10 +2822,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" t="s">
         <v>172</v>
-      </c>
-      <c r="B101" t="s">
-        <v>173</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -2758,10 +2833,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" t="s">
         <v>182</v>
-      </c>
-      <c r="B102" t="s">
-        <v>183</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -2769,10 +2844,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B103" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -2780,7 +2855,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
         <v>31</v>
@@ -2791,10 +2866,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -2802,10 +2877,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -2813,10 +2888,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -2824,10 +2899,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
@@ -2835,10 +2910,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -2846,7 +2921,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
         <v>63</v>
@@ -2857,10 +2932,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -2868,10 +2943,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
@@ -2879,10 +2954,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -2890,10 +2965,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
@@ -2901,10 +2976,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -2912,10 +2987,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" t="s">
         <v>205</v>
-      </c>
-      <c r="B116" t="s">
-        <v>206</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
@@ -2923,10 +2998,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
@@ -2934,10 +3009,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -2945,10 +3020,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
@@ -2956,10 +3031,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
@@ -2967,10 +3042,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -2978,7 +3053,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
         <v>33</v>
@@ -2989,10 +3064,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -3000,10 +3075,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -3011,10 +3086,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -3022,10 +3097,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
@@ -3033,10 +3108,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>226</v>
+      </c>
+      <c r="B127" t="s">
         <v>227</v>
-      </c>
-      <c r="B127" t="s">
-        <v>228</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -3044,10 +3119,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
@@ -3055,10 +3130,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" t="s">
         <v>231</v>
-      </c>
-      <c r="B129" t="s">
-        <v>232</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -3066,10 +3141,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -3077,10 +3152,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -3088,10 +3163,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -3099,10 +3174,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" t="s">
         <v>237</v>
-      </c>
-      <c r="B133" t="s">
-        <v>238</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -3110,10 +3185,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
@@ -3121,10 +3196,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -3132,10 +3207,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -3143,10 +3218,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -3154,7 +3229,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B138" t="s">
         <v>45</v>
@@ -3165,10 +3240,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -3176,10 +3251,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -3187,10 +3262,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -3198,10 +3273,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
@@ -3209,10 +3284,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -3220,10 +3295,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
@@ -3231,10 +3306,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
@@ -3242,10 +3317,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
@@ -3253,10 +3328,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B147" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -3264,10 +3339,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -3275,10 +3350,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -3286,10 +3361,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
@@ -3297,10 +3372,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -3308,10 +3383,10 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
@@ -3319,10 +3394,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E153" t="s">
         <v>5</v>
@@ -3330,10 +3405,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -3341,10 +3416,10 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B155" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E155" t="s">
         <v>5</v>
@@ -3352,10 +3427,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B156" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -3363,10 +3438,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E157" t="s">
         <v>5</v>
@@ -3374,10 +3449,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B158" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -3385,10 +3460,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
@@ -3396,10 +3471,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>289</v>
+      </c>
+      <c r="B160" t="s">
         <v>290</v>
-      </c>
-      <c r="B160" t="s">
-        <v>291</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -3407,10 +3482,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -3418,10 +3493,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>293</v>
+      </c>
+      <c r="B162" t="s">
         <v>294</v>
-      </c>
-      <c r="B162" t="s">
-        <v>295</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -3429,10 +3504,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>295</v>
+      </c>
+      <c r="B163" t="s">
         <v>296</v>
-      </c>
-      <c r="B163" t="s">
-        <v>297</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
@@ -3440,10 +3515,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>297</v>
+      </c>
+      <c r="B164" t="s">
         <v>298</v>
-      </c>
-      <c r="B164" t="s">
-        <v>299</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -3451,10 +3526,10 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -3462,10 +3537,10 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B166" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -3473,10 +3548,10 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B167" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -3484,10 +3559,10 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B168" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -3495,7 +3570,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B169" t="s">
         <v>42</v>
@@ -3506,10 +3581,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B170" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -3517,10 +3592,10 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B171" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
@@ -3528,10 +3603,10 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>311</v>
+      </c>
+      <c r="B172" t="s">
         <v>312</v>
-      </c>
-      <c r="B172" t="s">
-        <v>313</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -3539,10 +3614,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B173" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -3550,10 +3625,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>315</v>
+      </c>
+      <c r="B174" t="s">
         <v>316</v>
-      </c>
-      <c r="B174" t="s">
-        <v>317</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -3561,10 +3636,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B175" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -3572,10 +3647,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B176" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -3583,10 +3658,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B177" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -3594,10 +3669,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B178" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -3605,10 +3680,10 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -3616,10 +3691,10 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B180" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -3627,10 +3702,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B181" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -3638,10 +3713,10 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B182" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -3649,10 +3724,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B183" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
@@ -3660,10 +3735,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B184" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -3671,10 +3746,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B185" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -3682,10 +3757,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -3693,10 +3768,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
@@ -3704,10 +3779,10 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B188" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -3715,10 +3790,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B189" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
@@ -3726,10 +3801,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B190" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -3737,10 +3812,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B191" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
@@ -3748,10 +3823,10 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>350</v>
+      </c>
+      <c r="B192" t="s">
         <v>351</v>
-      </c>
-      <c r="B192" t="s">
-        <v>352</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -3759,10 +3834,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B193" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
@@ -3770,10 +3845,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B194" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -3781,10 +3856,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
@@ -3792,10 +3867,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B196" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -3803,10 +3878,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E197" t="s">
         <v>5</v>
@@ -3814,10 +3889,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B198" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -3825,10 +3900,10 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B199" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
@@ -3836,10 +3911,10 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -3847,10 +3922,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>365</v>
+      </c>
+      <c r="B201" t="s">
         <v>366</v>
-      </c>
-      <c r="B201" t="s">
-        <v>367</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
@@ -3858,21 +3933,21 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>368</v>
+      </c>
+      <c r="B202" t="s">
+        <v>367</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>369</v>
       </c>
-      <c r="B202" t="s">
-        <v>368</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="B203" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="E203" t="s">
         <v>5</v>
@@ -3880,10 +3955,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B204" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -3891,10 +3966,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B205" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
@@ -3902,10 +3977,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B206" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -3913,10 +3988,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B207" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E207" t="s">
         <v>5</v>
@@ -3924,10 +3999,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -3935,10 +4010,10 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B209" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E209" t="s">
         <v>5</v>
@@ -3946,10 +4021,10 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B210" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -3957,10 +4032,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>382</v>
+      </c>
+      <c r="B211" t="s">
         <v>383</v>
-      </c>
-      <c r="B211" t="s">
-        <v>384</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
@@ -3968,7 +4043,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B212" t="s">
         <v>61</v>
@@ -3979,10 +4054,10 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E213" t="s">
         <v>5</v>
@@ -3990,10 +4065,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B214" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -4001,10 +4076,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E215" t="s">
         <v>5</v>
@@ -4012,7 +4087,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B216" t="s">
         <v>61</v>
@@ -4023,7 +4098,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B217" t="s">
         <v>33</v>
@@ -4034,10 +4109,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B218" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -4045,10 +4120,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B219" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E219" t="s">
         <v>5</v>
@@ -4056,10 +4131,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B220" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -4067,10 +4142,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B221" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E221" t="s">
         <v>5</v>
@@ -4078,10 +4153,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B222" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -4089,10 +4164,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B223" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
@@ -4100,10 +4175,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>403</v>
+      </c>
+      <c r="B224" t="s">
         <v>404</v>
-      </c>
-      <c r="B224" t="s">
-        <v>405</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -4111,7 +4186,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B225" t="s">
         <v>61</v>
@@ -4122,7 +4197,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B226" t="s">
         <v>33</v>
@@ -4133,27 +4208,192 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B227" t="s">
+        <v>405</v>
+      </c>
+      <c r="E227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>406</v>
       </c>
-      <c r="E227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>407</v>
+      </c>
       <c r="E228" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>409</v>
+      </c>
+      <c r="B229" t="s">
+        <v>408</v>
+      </c>
       <c r="E229" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>411</v>
+      </c>
+      <c r="B230" t="s">
+        <v>410</v>
+      </c>
       <c r="E230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>413</v>
+      </c>
+      <c r="B231" t="s">
+        <v>412</v>
+      </c>
+      <c r="E231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>415</v>
+      </c>
+      <c r="B232" t="s">
+        <v>63</v>
+      </c>
+      <c r="E232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>417</v>
+      </c>
+      <c r="B233" t="s">
+        <v>416</v>
+      </c>
+      <c r="E233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>418</v>
+      </c>
+      <c r="B234" t="s">
+        <v>65</v>
+      </c>
+      <c r="E234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>419</v>
+      </c>
+      <c r="B235" t="s">
+        <v>416</v>
+      </c>
+      <c r="E235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>421</v>
+      </c>
+      <c r="B236" t="s">
+        <v>420</v>
+      </c>
+      <c r="E236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>423</v>
+      </c>
+      <c r="B237" t="s">
+        <v>422</v>
+      </c>
+      <c r="E237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>424</v>
+      </c>
+      <c r="B238" t="s">
+        <v>425</v>
+      </c>
+      <c r="E238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>426</v>
+      </c>
+      <c r="B239" t="s">
+        <v>427</v>
+      </c>
+      <c r="E239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>428</v>
+      </c>
+      <c r="B240" t="s">
+        <v>429</v>
+      </c>
+      <c r="E240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>430</v>
+      </c>
+      <c r="B241" t="s">
+        <v>261</v>
+      </c>
+      <c r="E241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>431</v>
+      </c>
+      <c r="B242" t="s">
+        <v>61</v>
+      </c>
+      <c r="E242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E245" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/object-repository/OneCSAppAndroid.xlsx
+++ b/src/test/resources/object-repository/OneCSAppAndroid.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE911B4-3586-4E97-B78D-6CDB656F7211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C51482B-DF20-43CE-8AF8-7CAD959477BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="455">
   <si>
     <t>ELEMENT_KEY</t>
   </si>
@@ -1327,6 +1327,75 @@
   </si>
   <si>
     <t>Downward_Chevron_Button</t>
+  </si>
+  <si>
+    <t>Search_Button</t>
+  </si>
+  <si>
+    <t>Search_Page</t>
+  </si>
+  <si>
+    <t>//android.view.View[@content-desc="search"]</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Search documents']</t>
+  </si>
+  <si>
+    <t>//android.widget.EditText[contains(@resource-id,"search")]</t>
+  </si>
+  <si>
+    <t>SEARCH_EDIT_TEXT</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Report']</t>
+  </si>
+  <si>
+    <t>SEARCH_REPORT_LIST</t>
+  </si>
+  <si>
+    <t>X_BUTTON_CLEAR</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Contracts']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Statements']</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Notifications']</t>
+  </si>
+  <si>
+    <t>REPORTS_DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>CONTRACTS_DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>STATEMENTS_DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>NOTIFICATIONS_DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='All documents']</t>
+  </si>
+  <si>
+    <t>ALLDOCS_DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>SEARCH_CONTRACT_LIST</t>
+  </si>
+  <si>
+    <t>//android.widget.TextView[@text='Contract']</t>
+  </si>
+  <si>
+    <t>Contract_Tab</t>
+  </si>
+  <si>
+    <t>//android.view.View[@resource-id='contract-documents-tab']</t>
   </si>
 </sst>
 </file>
@@ -1701,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CBCB60-9331-884B-A6FA-9499E6899744}">
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4383,17 +4452,169 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>432</v>
+      </c>
+      <c r="B243" t="s">
+        <v>434</v>
+      </c>
       <c r="E243" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>433</v>
+      </c>
+      <c r="B244" t="s">
+        <v>435</v>
+      </c>
       <c r="E244" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>437</v>
+      </c>
+      <c r="B245" t="s">
+        <v>436</v>
+      </c>
       <c r="E245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>439</v>
+      </c>
+      <c r="B246" t="s">
+        <v>438</v>
+      </c>
+      <c r="E246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>440</v>
+      </c>
+      <c r="B247" t="s">
+        <v>441</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>445</v>
+      </c>
+      <c r="B248" t="s">
+        <v>65</v>
+      </c>
+      <c r="E248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>446</v>
+      </c>
+      <c r="B249" t="s">
+        <v>442</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>447</v>
+      </c>
+      <c r="B250" t="s">
+        <v>443</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>448</v>
+      </c>
+      <c r="B251" t="s">
+        <v>444</v>
+      </c>
+      <c r="E251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>450</v>
+      </c>
+      <c r="B252" t="s">
+        <v>449</v>
+      </c>
+      <c r="E252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>451</v>
+      </c>
+      <c r="B253" t="s">
+        <v>452</v>
+      </c>
+      <c r="E253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>453</v>
+      </c>
+      <c r="B254" t="s">
+        <v>454</v>
+      </c>
+      <c r="E254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E261" t="s">
         <v>5</v>
       </c>
     </row>
